--- a/data/results/results_SFLDT_new.xlsx
+++ b/data/results/results_SFLDT_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoavz\GitHub\APPETITE\data\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-yzelinger\GitHub\APPETITE\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B35714C-E105-4395-9F2E-2D01E94DB7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CC5FF0-B436-4B22-B12A-0AC29D9B42F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_results" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="167">
   <si>
     <t>after size</t>
   </si>
@@ -505,6 +505,30 @@
   <si>
     <t>סכום של dummy wasted effort 2</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>After retrain</t>
+  </si>
+  <si>
+    <t>before-after retrain</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Our model</t>
+  </si>
+  <si>
+    <t>Our Model</t>
+  </si>
 </sst>
 </file>
 
@@ -514,7 +538,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -564,11 +588,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +613,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -648,7 +672,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -704,7 +728,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -760,7 +784,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -816,7 +840,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -872,7 +896,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -928,7 +952,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -984,7 +1008,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1040,7 +1064,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1096,7 +1120,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1152,7 +1176,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1208,7 +1232,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1264,7 +1288,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1320,7 +1344,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1376,7 +1400,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1432,7 +1456,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1488,7 +1512,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1544,7 +1568,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1600,7 +1624,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2547,7 +2571,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2600,7 +2624,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2653,7 +2677,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2706,7 +2730,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2759,7 +2783,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2812,7 +2836,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2867,7 +2891,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2922,7 +2946,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2977,7 +3001,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3032,7 +3056,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3087,7 +3111,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3142,7 +3166,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3198,7 +3222,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3254,7 +3278,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3310,7 +3334,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3366,7 +3390,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3422,7 +3446,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3478,7 +3502,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3723,7 +3747,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7590,7 +7614,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7646,7 +7670,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7702,7 +7726,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7758,7 +7782,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7814,7 +7838,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7870,7 +7894,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7926,7 +7950,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -7982,7 +8006,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8038,7 +8062,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8094,7 +8118,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8150,7 +8174,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8206,7 +8230,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8262,7 +8286,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8318,7 +8342,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8374,7 +8398,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -8430,7 +8454,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -9382,7 +9406,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -9438,7 +9462,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -9489,7 +9513,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9542,7 +9566,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9574,7 +9598,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של Regular_SFLDT wasted-effort</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9595,7 +9619,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9607,7 +9631,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7065868263473054</c:v>
+                  <c:v>1.2095808383233533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,7 +9651,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של STAT_SFLDT wasted-effort</c:v>
+                  <c:v>Our Model</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9648,7 +9672,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9660,7 +9684,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2095808383233533</c:v>
+                  <c:v>0.48008331163759438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9668,778 +9692,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000026-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_SFLDT wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.1720906014058838</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Error_SFLDT wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6.0643061702681598</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של SFLDT_Features wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.0026034886748243</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_Error_SFLDT wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.3098151523040871</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_SFLDT_Features wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.0096329080968496</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Error_SFLDT_Features wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.0026034886748243</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$K$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_Error_SFLDT_Features wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.6105180942462902</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_STAT_SFLDT wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$L$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.48008331163759438</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Error_STAT_SFLDT wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$M$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.2871648008331165</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של STAT_SFLDT_Features wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$N$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.1481385055975011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$O$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_Error_STAT_SFLDT wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$O$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.293673522520177</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000031-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$P$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_STAT_SFLDT_Features wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.5425670398333766</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000032-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$Q$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Error_STAT_SFLDT_Features wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$Q$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.1481385055975011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000043-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$R$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_Error_STAT_SFLDT_Features wasted-effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Total wasted  effort'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Total wasted  effort'!$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.8846654517052852</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000044-95AC-4F8E-98AA-8B0BFDAD8EDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10573,6 +9825,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10665,7 +9925,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11732,7 +10992,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -11788,7 +11048,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -11844,7 +11104,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -11900,7 +11160,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -11956,7 +11216,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12012,7 +11272,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12068,7 +11328,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12124,7 +11384,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12180,7 +11440,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12236,7 +11496,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12292,7 +11552,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12348,7 +11608,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12404,7 +11664,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12460,7 +11720,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12516,7 +11776,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12572,7 +11832,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12628,7 +11888,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12684,7 +11944,175 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -12713,7 +12141,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של after retrain increase</c:v>
+                  <c:v>After retrain</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12778,37 +12206,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-16.830575170334789</c:v>
+                  <c:v>-8.972801377182515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10.520164583737328</c:v>
+                  <c:v>-5.2404182272206068</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26305403502723279</c:v>
+                  <c:v>3.0674142602317902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5542711097331083</c:v>
+                  <c:v>5.8946871066259501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4624280202450679</c:v>
+                  <c:v>8.4486324021755568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.50059300380937</c:v>
+                  <c:v>9.5581423354975108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.037956564746057</c:v>
+                  <c:v>10.663653402268867</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9479719928733985</c:v>
+                  <c:v>11.49341643321476</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.248500451950578</c:v>
+                  <c:v>14.585263052789747</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.033775999336754</c:v>
+                  <c:v>14.814552130839813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.75924357332897</c:v>
+                  <c:v>15.416034348281485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12829,7 +12257,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של before after retrain increase</c:v>
+                  <c:v>before-after retrain</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12894,37 +12322,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11.036384092316604</c:v>
+                  <c:v>10.01981620276081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.53574681426651</c:v>
+                  <c:v>13.031740407771505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.426824616600872</c:v>
+                  <c:v>15.35569183851241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.945079100122154</c:v>
+                  <c:v>16.083241360173815</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.933671357663432</c:v>
+                  <c:v>17.193867687947595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.137304914253097</c:v>
+                  <c:v>17.641192543097841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.750514258852125</c:v>
+                  <c:v>19.153222297535599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.108430214971772</c:v>
+                  <c:v>19.604646049305849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.407633220080623</c:v>
+                  <c:v>20.17418648069</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.36409719224131</c:v>
+                  <c:v>20.769178764498562</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.4462170762684</c:v>
+                  <c:v>21.9101633086151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12945,7 +12373,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של Regular_SFLDT increase</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13010,37 +12438,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.9096666724056686</c:v>
+                  <c:v>9.7672423911053503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4898161954574753</c:v>
+                  <c:v>14.082337484219014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0801330075946325</c:v>
+                  <c:v>14.151875532632593</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4134748206238505</c:v>
+                  <c:v>15.160828083640519</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2113904102743867</c:v>
+                  <c:v>14.88369778431078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.889192585292701</c:v>
+                  <c:v>15.585982742063813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7848000332047214</c:v>
+                  <c:v>14.996368917273095</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.200631756460952</c:v>
+                  <c:v>14.634837492974528</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.724217205790243</c:v>
+                  <c:v>15.90240745482104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2603925755073568</c:v>
+                  <c:v>16.694281623429344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.1965902843679697</c:v>
+                  <c:v>16.867754611636098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13061,7 +12489,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סכום של STAT_SFLDT increase</c:v>
+                  <c:v>Our model</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13126,37 +12554,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.4489188898668619</c:v>
+                  <c:v>8.3498763222242385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.268364719143388</c:v>
+                  <c:v>12.686252115651527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.757918487406572</c:v>
+                  <c:v>13.629223473635536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.460488500649886</c:v>
+                  <c:v>14.953289716551456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.366114702188311</c:v>
+                  <c:v>15.832230765648868</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.098694949614444</c:v>
+                  <c:v>15.964710705623997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.130983323187532</c:v>
+                  <c:v>16.469498904945961</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.75175754738928</c:v>
+                  <c:v>16.458742757607894</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.04153710312233</c:v>
+                  <c:v>16.672630401028023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.901900546739261</c:v>
+                  <c:v>17.213689590831017</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.812458737616311</c:v>
+                  <c:v>17.957594738813974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13164,1661 +12592,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_SFLDT increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$F$5:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.5459950656879822</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8377773335823306</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.879321847108244</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.1097603144763273</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.2250104032492448</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.337835726235487</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.795189176155306</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0080985088747401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.6524881720397495</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6972022315025681</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.3316053356899911</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של SFLDT_Features increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$G$5:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.5861443381728288</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4558030902155181</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5044930528482947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6364128821449526</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.9080323952410918</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.3635541754012346</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.6869063844227599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.584168433639711</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.8966770090976457</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.3398756733433501</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.036795383236671</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Error_SFLDT increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$H$5:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.2815449763744815</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2626487192842992</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.660839856728229</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.1177617345769111</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.309257521577071</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.7567216001300263</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.9196363545750961</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5432007862812664</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.3770928049403564</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.7565675560785197</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.291189242968759</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_Error_SFLDT increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$I$5:$I$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.3472434549999805</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5223906404644056</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6392756122963767</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0221777110507926</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.9737568877760463</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.6517742345431694</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4171559205686926</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.3297091564335268</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.6075820253873641</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.854781544904113</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.0431750671582538</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_SFLDT_Features increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$J$5:$J$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.7818835788682366</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.2698434380562045</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.261015913557509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.250963660017069</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.558573495100712</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.615512921183123</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.495758312517884</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.927191874459158</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.644927563688302</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.743893044277817</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.863390452838201</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$K$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Error_SFLDT_Features increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$K$5:$K$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.5861443381728288</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4558030902155181</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5044930528482947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6364128821449526</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.9080323952410918</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.3635541754012346</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.6869063844227599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.584168433639711</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.8966770090976457</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.3398756733433501</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.036795383236671</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_Error_SFLDT_Features increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$L$5:$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.0108889522567384</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0941934567556286</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.1803747813138576</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.2596664562838082</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.2168722702758679</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.343902221751895</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.6829202141543558</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.8513466656906896</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5265981294686313</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.7080178633570871</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.4276761580043296</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_STAT_SFLDT increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$M$5:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.2242627681513394</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.3332220467729652</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.73992341653331</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.070404130491644</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.926187826198191</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.748049019715731</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.119195818641948</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.514155890722581</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.264390752133037</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.375805106908635</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.735033698001688</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Error_STAT_SFLDT increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$N$5:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.3492548326943443</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3570859430744839</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5706133133754214</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6858722091245131</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4166897060433534</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.3556782036447563</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2536111073309133</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.662014817038064</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.9903394423909297</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4655600882134499</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.3151765774724105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$O$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של STAT_SFLDT_Features increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$O$5:$O$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.12724883595078</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1564907005517036</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.477016794969928</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0682983155197059</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6484785011807608</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0782012227652888</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.8853800457575982</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.1886903635631185</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.189602858612762</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.4091516792636654</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.5641222119313802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$P$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_Error_STAT_SFLDT increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$P$5:$P$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7.206310310965824</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.81580751370112</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.254399923124318</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.254764334985602</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.101880356583317</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.669042909910129</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.1610404815263</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.503299248109309</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.205254636904879</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.581695410056286</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.114691807378255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$Q$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_STAT_SFLDT_Features increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$Q$5:$Q$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>4.5717698962323725</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.3688958533692031</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.446211403539968</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.788954878162441</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.823585334966081</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.381192487096289</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.764751612239971</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.112838901738222</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.899070800748538</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.85155696450434</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.337539871969808</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$R$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Error_STAT_SFLDT_Features increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$R$5:$R$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.12724883595078</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1564907005517036</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.477016794969928</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0682983155197059</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6484785011807608</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0782012227652888</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.8853800457575982</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.1886903635631185</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.189602858612762</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.4091516792636654</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.5641222119313802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-6A51-4207-9204-83DDEA59C4F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$S$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>סכום של Fuzzy_Participation_Error_STAT_SFLDT_Features increase</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'after size X accuracy increase'!$A$5:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'after size X accuracy increase'!$S$5:$S$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.3316768530915262</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.72176989579365</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0188520579100473</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.0106804080146929</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.845461864811746</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.402568910010098</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.148623423656058</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.7070210858318031</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.033529694341224</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.804507997560455</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.531576035827797</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-6A51-4207-9204-83DDEA59C4F0}"/>
+              <c16:uniqueId val="{00000003-8DA1-4F09-816E-A773B6576FB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15043,7 +12817,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -20702,7 +18476,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -20758,7 +18532,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -20814,7 +18588,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -20870,7 +18644,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -20926,7 +18700,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -20982,7 +18756,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -21038,7 +18812,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -21094,7 +18868,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -21150,7 +18924,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -21206,7 +18980,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -21262,7 +19036,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -21318,7 +19092,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -21374,7 +19148,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -21430,7 +19204,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -21486,7 +19260,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -21542,7 +19316,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -21598,7 +19372,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -21654,7 +19428,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -26721,38 +24495,38 @@
     <cacheField name="Fuzzy_Participation_STAT_BARINEL_Features increase" numFmtId="0" formula="'Fuzzy_Participation_STAT_BARINEL_Features fix accuracy increase'/count" databaseField="0"/>
     <cacheField name="Fuzzy_Error_STAT_BARINEL_Features increase" numFmtId="0" formula="'Fuzzy_Error_STAT_BARINEL_Features fix accuracy increase'/count" databaseField="0"/>
     <cacheField name="Fuzzy_Participation_Error_STAT_BARINEL_Features increase" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_BARINEL_Features fix accuracy increase'/count" databaseField="0"/>
-    <cacheField name="Regular_SFLDT wasted-effort" numFmtId="0" formula="'Regular_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_SFLDT wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Error_SFLDT wasted-effort" numFmtId="0" formula="'Fuzzy_Error_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="SFLDT_Features wasted-effort" numFmtId="0" formula="'SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_Error_SFLDT wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_SFLDT_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Error_SFLDT_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Error_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_Error_SFLDT_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="STAT_SFLDT wasted-effort" numFmtId="0" formula="'STAT_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_STAT_SFLDT wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Error_STAT_SFLDT wasted-effort" numFmtId="0" formula="'Fuzzy_Error_STAT_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="STAT_SFLDT_Features wasted-effort" numFmtId="0" formula="'STAT_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_Error_STAT_SFLDT wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_SFLDT wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_STAT_SFLDT_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Error_STAT_SFLDT_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Error_STAT_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_Error_STAT_SFLDT_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_SFLDT_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Regular_BARINEL wasted-effort" numFmtId="0" formula="'Regular_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_BARINEL wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Error_BARINEL wasted-effort" numFmtId="0" formula="'Fuzzy_Error_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="BARINEL_Features wasted-effort" numFmtId="0" formula="'BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_Error_BARINEL wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_BARINEL_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Error_BARINEL_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Error_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_Error_BARINEL_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="STAT_BARINEL wasted-effort" numFmtId="0" formula="'STAT_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_STAT_BARINEL wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Error_STAT_BARINEL wasted-effort" numFmtId="0" formula="'Fuzzy_Error_STAT_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="STAT_BARINEL_Features wasted-effort" numFmtId="0" formula="'STAT_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_Error_STAT_BARINEL wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_BARINEL wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_STAT_BARINEL_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Error_STAT_BARINEL_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Error_STAT_BARINEL_Features wasted effort' /count" databaseField="0"/>
-    <cacheField name="Fuzzy_Participation_Error_STAT_BARINEL_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_BARINEL_Features wasted effort' /count" databaseField="0"/>
+    <cacheField name="Regular_SFLDT wasted-effort" numFmtId="0" formula="'Regular_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_SFLDT wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Error_SFLDT wasted-effort" numFmtId="0" formula="'Fuzzy_Error_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="SFLDT_Features wasted-effort" numFmtId="0" formula="'SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_Error_SFLDT wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_SFLDT_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Error_SFLDT_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Error_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_Error_SFLDT_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="STAT_SFLDT wasted-effort" numFmtId="0" formula="'STAT_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_STAT_SFLDT wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Error_STAT_SFLDT wasted-effort" numFmtId="0" formula="'Fuzzy_Error_STAT_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="STAT_SFLDT_Features wasted-effort" numFmtId="0" formula="'STAT_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_Error_STAT_SFLDT wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_SFLDT wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_STAT_SFLDT_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Error_STAT_SFLDT_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Error_STAT_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_Error_STAT_SFLDT_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_SFLDT_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Regular_BARINEL wasted-effort" numFmtId="0" formula="'Regular_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_BARINEL wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Error_BARINEL wasted-effort" numFmtId="0" formula="'Fuzzy_Error_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="BARINEL_Features wasted-effort" numFmtId="0" formula="'BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_Error_BARINEL wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_BARINEL_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Error_BARINEL_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Error_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_Error_BARINEL_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="STAT_BARINEL wasted-effort" numFmtId="0" formula="'STAT_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_STAT_BARINEL wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Error_STAT_BARINEL wasted-effort" numFmtId="0" formula="'Fuzzy_Error_STAT_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="STAT_BARINEL_Features wasted-effort" numFmtId="0" formula="'STAT_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_Error_STAT_BARINEL wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_BARINEL wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_STAT_BARINEL_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_STAT_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Error_STAT_BARINEL_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Error_STAT_BARINEL_Features wasted effort'/count" databaseField="0"/>
+    <cacheField name="Fuzzy_Participation_Error_STAT_BARINEL_Features wasted-effort" numFmtId="0" formula="'Fuzzy_Participation_Error_STAT_BARINEL_Features wasted effort'/count" databaseField="0"/>
     <cacheField name="dummy wasted effort 1" numFmtId="0" formula=" 0" databaseField="0"/>
     <cacheField name="dummy wasted effort 2" numFmtId="0" formula=" 0" databaseField="0"/>
   </cacheFields>
@@ -38536,7 +36310,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24A50593-9234-48F2-8D5D-4D0FEAC99390}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24A50593-9234-48F2-8D5D-4D0FEAC99390}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A4:R5" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="172">
     <pivotField axis="axisPage" showAll="0">
@@ -38998,8 +36772,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80B9F3E0-BDE1-4345-B055-03F1B925CAD8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A4:R5" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80B9F3E0-BDE1-4345-B055-03F1B925CAD8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A4:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="172">
     <pivotField axis="axisPage" showAll="0">
       <items count="12">
@@ -39162,22 +36936,22 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -39203,7 +36977,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="18">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -39216,75 +36990,19 @@
     <i i="3">
       <x v="3"/>
     </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
-    <i i="9">
-      <x v="9"/>
-    </i>
-    <i i="10">
-      <x v="10"/>
-    </i>
-    <i i="11">
-      <x v="11"/>
-    </i>
-    <i i="12">
-      <x v="12"/>
-    </i>
-    <i i="13">
-      <x v="13"/>
-    </i>
-    <i i="14">
-      <x v="14"/>
-    </i>
-    <i i="15">
-      <x v="15"/>
-    </i>
-    <i i="16">
-      <x v="16"/>
-    </i>
-    <i i="17">
-      <x v="17"/>
-    </i>
   </colItems>
   <pageFields count="2">
     <pageField fld="1" hier="-1"/>
     <pageField fld="0" hier="-1"/>
   </pageFields>
-  <dataFields count="18">
+  <dataFields count="4">
     <dataField name="סכום של dummy wasted effort 1" fld="170" baseField="0" baseItem="0"/>
     <dataField name="סכום של dummy wasted effort 2" fld="171" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Regular_SFLDT wasted-effort" fld="138" baseField="0" baseItem="0"/>
-    <dataField name="סכום של STAT_SFLDT wasted-effort" fld="146" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_SFLDT wasted-effort" fld="139" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Error_SFLDT wasted-effort" fld="140" baseField="0" baseItem="0"/>
-    <dataField name="סכום של SFLDT_Features wasted-effort" fld="141" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_Error_SFLDT wasted-effort" fld="142" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_SFLDT_Features wasted-effort" fld="143" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Error_SFLDT_Features wasted-effort" fld="144" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_Error_SFLDT_Features wasted-effort" fld="145" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_STAT_SFLDT wasted-effort" fld="147" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Error_STAT_SFLDT wasted-effort" fld="148" baseField="0" baseItem="0"/>
-    <dataField name="סכום של STAT_SFLDT_Features wasted-effort" fld="149" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_Error_STAT_SFLDT wasted-effort" fld="150" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_STAT_SFLDT_Features wasted-effort" fld="151" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Error_STAT_SFLDT_Features wasted-effort" fld="152" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_Error_STAT_SFLDT_Features wasted-effort" fld="153" baseField="0" baseItem="0"/>
+    <dataField name="Baseline" fld="146" baseField="0" baseItem="2"/>
+    <dataField name="Our Model" fld="147" baseField="0" baseItem="3"/>
   </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="3" format="68" series="1">
+  <chartFormats count="12">
+    <chartFormat chart="3" format="76" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -39293,137 +37011,11 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="69" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="70" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="71" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="72" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="73" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="74" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="75" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="76" series="1">
+    <chartFormat chart="3" format="77" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="77" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="78" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="79" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="80" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="81" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="82" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="83" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="17"/>
           </reference>
         </references>
       </pivotArea>
@@ -39446,6 +37038,78 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="7" format="102" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="103" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="104" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="105" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="106" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="107" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="108" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="109" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -39460,8 +37124,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A83B2E9-13A3-4679-8094-8279FEDF532D}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A4:S16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A83B2E9-13A3-4679-8094-8279FEDF532D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A4:E16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="172">
     <pivotField axis="axisRow" showAll="0">
       <items count="12">
@@ -39482,7 +37146,7 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item t="default"/>
@@ -39592,22 +37256,22 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -39703,7 +37367,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="18">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -39716,73 +37380,17 @@
     <i i="3">
       <x v="3"/>
     </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
-    <i i="9">
-      <x v="9"/>
-    </i>
-    <i i="10">
-      <x v="10"/>
-    </i>
-    <i i="11">
-      <x v="11"/>
-    </i>
-    <i i="12">
-      <x v="12"/>
-    </i>
-    <i i="13">
-      <x v="13"/>
-    </i>
-    <i i="14">
-      <x v="14"/>
-    </i>
-    <i i="15">
-      <x v="15"/>
-    </i>
-    <i i="16">
-      <x v="16"/>
-    </i>
-    <i i="17">
-      <x v="17"/>
-    </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="1" hier="-1"/>
   </pageFields>
-  <dataFields count="18">
-    <dataField name="סכום של after retrain increase" fld="104" baseField="0" baseItem="0"/>
-    <dataField name="סכום של before after retrain increase" fld="105" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Regular_SFLDT increase" fld="106" baseField="0" baseItem="0"/>
-    <dataField name="סכום של STAT_SFLDT increase" fld="114" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_SFLDT increase" fld="107" baseField="0" baseItem="0"/>
-    <dataField name="סכום של SFLDT_Features increase" fld="108" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Error_SFLDT increase" fld="109" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_Error_SFLDT increase" fld="110" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_SFLDT_Features increase" fld="111" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Error_SFLDT_Features increase" fld="112" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_Error_SFLDT_Features increase" fld="113" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_STAT_SFLDT increase" fld="115" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Error_STAT_SFLDT increase" fld="116" baseField="0" baseItem="0"/>
-    <dataField name="סכום של STAT_SFLDT_Features increase" fld="117" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_Error_STAT_SFLDT increase" fld="118" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_STAT_SFLDT_Features increase" fld="119" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Error_STAT_SFLDT_Features increase" fld="120" baseField="0" baseItem="0"/>
-    <dataField name="סכום של Fuzzy_Participation_Error_STAT_SFLDT_Features increase" fld="121" baseField="0" baseItem="0"/>
+  <dataFields count="4">
+    <dataField name="After retrain" fld="104" baseField="0" baseItem="0"/>
+    <dataField name="before-after retrain" fld="105" baseField="0" baseItem="0"/>
+    <dataField name="Baseline" fld="114" baseField="0" baseItem="0"/>
+    <dataField name="Our model" fld="115" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="54">
+  <chartFormats count="8">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -39797,78 +37405,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -39891,222 +37427,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="17"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="17" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="17"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
     <chartFormat chart="3" format="18" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -40125,16 +37445,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="20" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21" series="1">
+    <chartFormat chart="3" format="36" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -40143,128 +37454,11 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="22" series="1">
+    <chartFormat chart="3" format="38" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="25" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="27" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="30" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="31" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="33" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="34" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="35" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="17"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -40283,7 +37477,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAC5D6F9-347A-4569-A758-C23BEC1E5720}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAC5D6F9-347A-4569-A758-C23BEC1E5720}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A4:S16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="172">
     <pivotField axis="axisRow" showAll="0">
@@ -41216,7 +38410,7 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -76399,52 +73593,52 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.4140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="51.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="55" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="47.9140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="44.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="41.109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="57.08203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="49.9140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="62.4140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="62.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -76505,58 +73699,58 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>7.632987945686839</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>17.52260096817378</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>9.5875076590446167</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>14.849468001181474</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>9.3296055467638475</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>9.9703979105681171</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>7.2236294634389244</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>8.7763357901385834</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>13.48774902545957</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>9.9703979105681171</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>11.805218789606801</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>15.218844814243976</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>8.5717963034999443</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>9.0252837597347</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>13.129014629393224</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>14.119960993031011</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>9.0252837597347</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>11.452883629708603</v>
       </c>
     </row>
@@ -76568,60 +73762,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67845E06-6F6A-4505-922F-114A5E3371FA}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="27.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.08203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.4140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="55.58203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="59" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="64.4140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="52.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="45.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="42.4140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="57.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="62" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="52.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="57.5546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="61" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="53.9140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="53.88671875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="49.9140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="62.4140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="62.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>129</v>
+      <c r="B2" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -76629,108 +73811,24 @@
         <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M4" t="s">
-        <v>151</v>
-      </c>
-      <c r="N4" t="s">
-        <v>152</v>
-      </c>
-      <c r="O4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P4" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>155</v>
-      </c>
-      <c r="R4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <v>2.7065868263473054</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="4">
         <v>1.2095808383233533</v>
       </c>
-      <c r="E5" s="2">
-        <v>1.1720906014058838</v>
-      </c>
-      <c r="F5" s="2">
-        <v>6.0643061702681598</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3.0026034886748243</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4.3098151523040871</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2.0096329080968496</v>
-      </c>
-      <c r="J5" s="2">
-        <v>3.0026034886748243</v>
-      </c>
-      <c r="K5" s="2">
-        <v>3.6105180942462902</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="D5" s="4">
         <v>0.48008331163759438</v>
-      </c>
-      <c r="M5" s="2">
-        <v>3.2871648008331165</v>
-      </c>
-      <c r="N5" s="2">
-        <v>4.1481385055975011</v>
-      </c>
-      <c r="O5" s="2">
-        <v>3.293673522520177</v>
-      </c>
-      <c r="P5" s="2">
-        <v>2.5425670398333766</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>4.1481385055975011</v>
-      </c>
-      <c r="R5" s="2">
-        <v>3.8846654517052852</v>
       </c>
     </row>
   </sheetData>
@@ -76741,808 +73839,248 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55130AF-3B97-4D49-BF2F-4FDE50C45764}">
-  <dimension ref="A2:S16"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A16" zoomScale="66" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView rightToLeft="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.4140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="51.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="54.58203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="48" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="60.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="19" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>130</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>131</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O4" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4" t="s">
-        <v>139</v>
-      </c>
-      <c r="S4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>0.50000000000000011</v>
       </c>
-      <c r="B5" s="2">
-        <v>-16.830575170334789</v>
-      </c>
-      <c r="C5" s="2">
-        <v>11.036384092316604</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.9096666724056686</v>
-      </c>
-      <c r="E5" s="2">
-        <v>7.4489188898668619</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.5459950656879822</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3.5861443381728288</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2.2815449763744815</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2.3472434549999805</v>
-      </c>
-      <c r="J5" s="2">
-        <v>3.7818835788682366</v>
-      </c>
-      <c r="K5" s="2">
-        <v>3.5861443381728288</v>
-      </c>
-      <c r="L5" s="2">
-        <v>3.0108889522567384</v>
-      </c>
-      <c r="M5" s="2">
-        <v>5.2242627681513394</v>
-      </c>
-      <c r="N5" s="2">
-        <v>3.3492548326943443</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1.12724883595078</v>
-      </c>
-      <c r="P5" s="2">
-        <v>7.206310310965824</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>4.5717698962323725</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1.12724883595078</v>
-      </c>
-      <c r="S5" s="2">
-        <v>5.3316768530915262</v>
+      <c r="B5" s="4">
+        <v>-8.972801377182515</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10.01981620276081</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9.7672423911053503</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8.3498763222242385</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
-        <v>-10.520164583737328</v>
-      </c>
-      <c r="C6" s="2">
-        <v>14.53574681426651</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6.4898161954574753</v>
-      </c>
-      <c r="E6" s="2">
-        <v>12.268364719143388</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4.8377773335823306</v>
-      </c>
-      <c r="G6" s="2">
-        <v>6.4558030902155181</v>
-      </c>
-      <c r="H6" s="2">
-        <v>4.2626487192842992</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5.5223906404644056</v>
-      </c>
-      <c r="J6" s="2">
-        <v>8.2698434380562045</v>
-      </c>
-      <c r="K6" s="2">
-        <v>6.4558030902155181</v>
-      </c>
-      <c r="L6" s="2">
-        <v>6.0941934567556286</v>
-      </c>
-      <c r="M6" s="2">
-        <v>9.3332220467729652</v>
-      </c>
-      <c r="N6" s="2">
-        <v>5.3570859430744839</v>
-      </c>
-      <c r="O6" s="2">
-        <v>3.1564907005517036</v>
-      </c>
-      <c r="P6" s="2">
-        <v>10.81580751370112</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>9.3688958533692031</v>
-      </c>
-      <c r="R6" s="2">
-        <v>3.1564907005517036</v>
-      </c>
-      <c r="S6" s="2">
-        <v>7.72176989579365</v>
+      <c r="B6" s="4">
+        <v>-5.2404182272206068</v>
+      </c>
+      <c r="C6" s="4">
+        <v>13.031740407771505</v>
+      </c>
+      <c r="D6" s="4">
+        <v>14.082337484219014</v>
+      </c>
+      <c r="E6" s="4">
+        <v>12.686252115651527</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.26305403502723279</v>
-      </c>
-      <c r="C7" s="2">
-        <v>16.426824616600872</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.0801330075946325</v>
-      </c>
-      <c r="E7" s="2">
-        <v>13.757918487406572</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5.879321847108244</v>
-      </c>
-      <c r="G7" s="2">
-        <v>7.5044930528482947</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5.660839856728229</v>
-      </c>
-      <c r="I7" s="2">
-        <v>6.6392756122963767</v>
-      </c>
-      <c r="J7" s="2">
-        <v>10.261015913557509</v>
-      </c>
-      <c r="K7" s="2">
-        <v>7.5044930528482947</v>
-      </c>
-      <c r="L7" s="2">
-        <v>7.1803747813138576</v>
-      </c>
-      <c r="M7" s="2">
-        <v>10.73992341653331</v>
-      </c>
-      <c r="N7" s="2">
-        <v>6.5706133133754214</v>
-      </c>
-      <c r="O7" s="2">
-        <v>5.477016794969928</v>
-      </c>
-      <c r="P7" s="2">
-        <v>10.254399923124318</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>11.446211403539968</v>
-      </c>
-      <c r="R7" s="2">
-        <v>5.477016794969928</v>
-      </c>
-      <c r="S7" s="2">
-        <v>8.0188520579100473</v>
+      <c r="B7" s="4">
+        <v>3.0674142602317902</v>
+      </c>
+      <c r="C7" s="4">
+        <v>15.35569183851241</v>
+      </c>
+      <c r="D7" s="4">
+        <v>14.151875532632593</v>
+      </c>
+      <c r="E7" s="4">
+        <v>13.629223473635536</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
-        <v>3.5542711097331083</v>
-      </c>
-      <c r="C8" s="2">
-        <v>16.945079100122154</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8.4134748206238505</v>
-      </c>
-      <c r="E8" s="2">
-        <v>12.460488500649886</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7.1097603144763273</v>
-      </c>
-      <c r="G8" s="2">
-        <v>6.6364128821449526</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7.1177617345769111</v>
-      </c>
-      <c r="I8" s="2">
-        <v>7.0221777110507926</v>
-      </c>
-      <c r="J8" s="2">
-        <v>11.250963660017069</v>
-      </c>
-      <c r="K8" s="2">
-        <v>6.6364128821449526</v>
-      </c>
-      <c r="L8" s="2">
-        <v>9.2596664562838082</v>
-      </c>
-      <c r="M8" s="2">
-        <v>11.070404130491644</v>
-      </c>
-      <c r="N8" s="2">
-        <v>6.6858722091245131</v>
-      </c>
-      <c r="O8" s="2">
-        <v>7.0682983155197059</v>
-      </c>
-      <c r="P8" s="2">
-        <v>10.254764334985602</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>11.788954878162441</v>
-      </c>
-      <c r="R8" s="2">
-        <v>7.0682983155197059</v>
-      </c>
-      <c r="S8" s="2">
-        <v>9.0106804080146929</v>
+      <c r="B8" s="4">
+        <v>5.8946871066259501</v>
+      </c>
+      <c r="C8" s="4">
+        <v>16.083241360173815</v>
+      </c>
+      <c r="D8" s="4">
+        <v>15.160828083640519</v>
+      </c>
+      <c r="E8" s="4">
+        <v>14.953289716551456</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>4.0000000000000009</v>
       </c>
-      <c r="B9" s="2">
-        <v>5.4624280202450679</v>
-      </c>
-      <c r="C9" s="2">
-        <v>18.933671357663432</v>
-      </c>
-      <c r="D9" s="2">
-        <v>9.2113904102743867</v>
-      </c>
-      <c r="E9" s="2">
-        <v>14.366114702188311</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7.2250104032492448</v>
-      </c>
-      <c r="G9" s="2">
-        <v>8.9080323952410918</v>
-      </c>
-      <c r="H9" s="2">
-        <v>7.309257521577071</v>
-      </c>
-      <c r="I9" s="2">
-        <v>7.9737568877760463</v>
-      </c>
-      <c r="J9" s="2">
-        <v>12.558573495100712</v>
-      </c>
-      <c r="K9" s="2">
-        <v>8.9080323952410918</v>
-      </c>
-      <c r="L9" s="2">
-        <v>9.2168722702758679</v>
-      </c>
-      <c r="M9" s="2">
-        <v>13.926187826198191</v>
-      </c>
-      <c r="N9" s="2">
-        <v>6.4166897060433534</v>
-      </c>
-      <c r="O9" s="2">
-        <v>7.6484785011807608</v>
-      </c>
-      <c r="P9" s="2">
-        <v>11.101880356583317</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>13.823585334966081</v>
-      </c>
-      <c r="R9" s="2">
-        <v>7.6484785011807608</v>
-      </c>
-      <c r="S9" s="2">
-        <v>8.845461864811746</v>
+      <c r="B9" s="4">
+        <v>8.4486324021755568</v>
+      </c>
+      <c r="C9" s="4">
+        <v>17.193867687947595</v>
+      </c>
+      <c r="D9" s="4">
+        <v>14.88369778431078</v>
+      </c>
+      <c r="E9" s="4">
+        <v>15.832230765648868</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
-        <v>7.50059300380937</v>
-      </c>
-      <c r="C10" s="2">
-        <v>19.137304914253097</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8.889192585292701</v>
-      </c>
-      <c r="E10" s="2">
-        <v>13.098694949614444</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6.337835726235487</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6.3635541754012346</v>
-      </c>
-      <c r="H10" s="2">
-        <v>6.7567216001300263</v>
-      </c>
-      <c r="I10" s="2">
-        <v>7.6517742345431694</v>
-      </c>
-      <c r="J10" s="2">
-        <v>11.615512921183123</v>
-      </c>
-      <c r="K10" s="2">
-        <v>6.3635541754012346</v>
-      </c>
-      <c r="L10" s="2">
-        <v>9.343902221751895</v>
-      </c>
-      <c r="M10" s="2">
-        <v>12.748049019715731</v>
-      </c>
-      <c r="N10" s="2">
-        <v>6.3556782036447563</v>
-      </c>
-      <c r="O10" s="2">
-        <v>7.0782012227652888</v>
-      </c>
-      <c r="P10" s="2">
-        <v>10.669042909910129</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>11.381192487096289</v>
-      </c>
-      <c r="R10" s="2">
-        <v>7.0782012227652888</v>
-      </c>
-      <c r="S10" s="2">
-        <v>8.402568910010098</v>
+      <c r="B10" s="4">
+        <v>9.5581423354975108</v>
+      </c>
+      <c r="C10" s="4">
+        <v>17.641192543097841</v>
+      </c>
+      <c r="D10" s="4">
+        <v>15.585982742063813</v>
+      </c>
+      <c r="E10" s="4">
+        <v>15.964710705623997</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
-        <v>10.037956564746057</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20.750514258852125</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8.7848000332047214</v>
-      </c>
-      <c r="E11" s="2">
-        <v>13.130983323187532</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6.795189176155306</v>
-      </c>
-      <c r="G11" s="2">
-        <v>7.6869063844227599</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6.9196363545750961</v>
-      </c>
-      <c r="I11" s="2">
-        <v>7.4171559205686926</v>
-      </c>
-      <c r="J11" s="2">
-        <v>10.495758312517884</v>
-      </c>
-      <c r="K11" s="2">
-        <v>7.6869063844227599</v>
-      </c>
-      <c r="L11" s="2">
-        <v>9.6829202141543558</v>
-      </c>
-      <c r="M11" s="2">
-        <v>14.119195818641948</v>
-      </c>
-      <c r="N11" s="2">
-        <v>6.2536111073309133</v>
-      </c>
-      <c r="O11" s="2">
-        <v>8.8853800457575982</v>
-      </c>
-      <c r="P11" s="2">
-        <v>11.1610404815263</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>13.764751612239971</v>
-      </c>
-      <c r="R11" s="2">
-        <v>8.8853800457575982</v>
-      </c>
-      <c r="S11" s="2">
-        <v>10.148623423656058</v>
+      <c r="B11" s="4">
+        <v>10.663653402268867</v>
+      </c>
+      <c r="C11" s="4">
+        <v>19.153222297535599</v>
+      </c>
+      <c r="D11" s="4">
+        <v>14.996368917273095</v>
+      </c>
+      <c r="E11" s="4">
+        <v>16.469498904945961</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>6.9999999999999991</v>
       </c>
-      <c r="B12" s="2">
-        <v>9.9479719928733985</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20.108430214971772</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10.200631756460952</v>
-      </c>
-      <c r="E12" s="2">
-        <v>14.75175754738928</v>
-      </c>
-      <c r="F12" s="2">
-        <v>7.0080985088747401</v>
-      </c>
-      <c r="G12" s="2">
-        <v>10.584168433639711</v>
-      </c>
-      <c r="H12" s="2">
-        <v>8.5432007862812664</v>
-      </c>
-      <c r="I12" s="2">
-        <v>8.3297091564335268</v>
-      </c>
-      <c r="J12" s="2">
-        <v>12.927191874459158</v>
-      </c>
-      <c r="K12" s="2">
-        <v>10.584168433639711</v>
-      </c>
-      <c r="L12" s="2">
-        <v>8.8513466656906896</v>
-      </c>
-      <c r="M12" s="2">
-        <v>14.514155890722581</v>
-      </c>
-      <c r="N12" s="2">
-        <v>7.662014817038064</v>
-      </c>
-      <c r="O12" s="2">
-        <v>9.1886903635631185</v>
-      </c>
-      <c r="P12" s="2">
-        <v>11.503299248109309</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>13.112838901738222</v>
-      </c>
-      <c r="R12" s="2">
-        <v>9.1886903635631185</v>
-      </c>
-      <c r="S12" s="2">
-        <v>8.7070210858318031</v>
+      <c r="B12" s="4">
+        <v>11.49341643321476</v>
+      </c>
+      <c r="C12" s="4">
+        <v>19.604646049305849</v>
+      </c>
+      <c r="D12" s="4">
+        <v>14.634837492974528</v>
+      </c>
+      <c r="E12" s="4">
+        <v>16.458742757607894</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>8.0000000000000018</v>
       </c>
-      <c r="B13" s="2">
-        <v>13.248500451950578</v>
-      </c>
-      <c r="C13" s="2">
-        <v>21.407633220080623</v>
-      </c>
-      <c r="D13" s="2">
-        <v>8.724217205790243</v>
-      </c>
-      <c r="E13" s="2">
-        <v>14.04153710312233</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6.6524881720397495</v>
-      </c>
-      <c r="G13" s="2">
-        <v>8.8966770090976457</v>
-      </c>
-      <c r="H13" s="2">
-        <v>7.3770928049403564</v>
-      </c>
-      <c r="I13" s="2">
-        <v>7.6075820253873641</v>
-      </c>
-      <c r="J13" s="2">
-        <v>11.644927563688302</v>
-      </c>
-      <c r="K13" s="2">
-        <v>8.8966770090976457</v>
-      </c>
-      <c r="L13" s="2">
-        <v>9.5265981294686313</v>
-      </c>
-      <c r="M13" s="2">
-        <v>13.264390752133037</v>
-      </c>
-      <c r="N13" s="2">
-        <v>6.9903394423909297</v>
-      </c>
-      <c r="O13" s="2">
-        <v>9.189602858612762</v>
-      </c>
-      <c r="P13" s="2">
-        <v>11.205254636904879</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>11.899070800748538</v>
-      </c>
-      <c r="R13" s="2">
-        <v>9.189602858612762</v>
-      </c>
-      <c r="S13" s="2">
-        <v>10.033529694341224</v>
+      <c r="B13" s="4">
+        <v>14.585263052789747</v>
+      </c>
+      <c r="C13" s="4">
+        <v>20.17418648069</v>
+      </c>
+      <c r="D13" s="4">
+        <v>15.90240745482104</v>
+      </c>
+      <c r="E13" s="4">
+        <v>16.672630401028023</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>9.0000000000000018</v>
       </c>
-      <c r="B14" s="2">
-        <v>12.033775999336754</v>
-      </c>
-      <c r="C14" s="2">
-        <v>22.36409719224131</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8.2603925755073568</v>
-      </c>
-      <c r="E14" s="2">
-        <v>13.901900546739261</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6.6972022315025681</v>
-      </c>
-      <c r="G14" s="2">
-        <v>9.3398756733433501</v>
-      </c>
-      <c r="H14" s="2">
-        <v>6.7565675560785197</v>
-      </c>
-      <c r="I14" s="2">
-        <v>6.854781544904113</v>
-      </c>
-      <c r="J14" s="2">
-        <v>10.743893044277817</v>
-      </c>
-      <c r="K14" s="2">
-        <v>9.3398756733433501</v>
-      </c>
-      <c r="L14" s="2">
-        <v>8.7080178633570871</v>
-      </c>
-      <c r="M14" s="2">
-        <v>13.375805106908635</v>
-      </c>
-      <c r="N14" s="2">
-        <v>6.4655600882134499</v>
-      </c>
-      <c r="O14" s="2">
-        <v>9.4091516792636654</v>
-      </c>
-      <c r="P14" s="2">
-        <v>11.581695410056286</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>13.85155696450434</v>
-      </c>
-      <c r="R14" s="2">
-        <v>9.4091516792636654</v>
-      </c>
-      <c r="S14" s="2">
-        <v>10.804507997560455</v>
+      <c r="B14" s="4">
+        <v>14.814552130839813</v>
+      </c>
+      <c r="C14" s="4">
+        <v>20.769178764498562</v>
+      </c>
+      <c r="D14" s="4">
+        <v>16.694281623429344</v>
+      </c>
+      <c r="E14" s="4">
+        <v>17.213689590831017</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="2">
-        <v>11.75924357332897</v>
-      </c>
-      <c r="C15" s="2">
-        <v>22.4462170762684</v>
-      </c>
-      <c r="D15" s="2">
-        <v>9.1965902843679697</v>
-      </c>
-      <c r="E15" s="2">
-        <v>14.812458737616311</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7.3316053356899911</v>
-      </c>
-      <c r="G15" s="2">
-        <v>10.036795383236671</v>
-      </c>
-      <c r="H15" s="2">
-        <v>7.291189242968759</v>
-      </c>
-      <c r="I15" s="2">
-        <v>7.0431750671582538</v>
-      </c>
-      <c r="J15" s="2">
-        <v>11.863390452838201</v>
-      </c>
-      <c r="K15" s="2">
-        <v>10.036795383236671</v>
-      </c>
-      <c r="L15" s="2">
-        <v>9.4276761580043296</v>
-      </c>
-      <c r="M15" s="2">
-        <v>14.735033698001688</v>
-      </c>
-      <c r="N15" s="2">
-        <v>7.3151765774724105</v>
-      </c>
-      <c r="O15" s="2">
-        <v>9.5641222119313802</v>
-      </c>
-      <c r="P15" s="2">
-        <v>12.114691807378255</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>14.337539871969808</v>
-      </c>
-      <c r="R15" s="2">
-        <v>9.5641222119313802</v>
-      </c>
-      <c r="S15" s="2">
-        <v>11.531576035827797</v>
+      <c r="B15" s="4">
+        <v>15.416034348281485</v>
+      </c>
+      <c r="C15" s="4">
+        <v>21.9101633086151</v>
+      </c>
+      <c r="D15" s="4">
+        <v>16.867754611636098</v>
+      </c>
+      <c r="E15" s="4">
+        <v>17.957594738813974</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2.2907441163232662</v>
-      </c>
-      <c r="C16" s="2">
-        <v>17.873423256568657</v>
-      </c>
-      <c r="D16" s="2">
-        <v>7.7252246130419495</v>
-      </c>
-      <c r="E16" s="2">
-        <v>12.712510577437019</v>
-      </c>
-      <c r="F16" s="2">
-        <v>5.9469904543171248</v>
-      </c>
-      <c r="G16" s="2">
-        <v>7.4406056817723947</v>
-      </c>
-      <c r="H16" s="2">
-        <v>6.0424592847175909</v>
-      </c>
-      <c r="I16" s="2">
-        <v>6.4578488172754787</v>
-      </c>
-      <c r="J16" s="2">
-        <v>10.008183058627012</v>
-      </c>
-      <c r="K16" s="2">
-        <v>7.4406056817723947</v>
-      </c>
-      <c r="L16" s="2">
-        <v>7.8271775390657572</v>
-      </c>
-      <c r="M16" s="2">
-        <v>11.526844086885756</v>
-      </c>
-      <c r="N16" s="2">
-        <v>6.0882070864487012</v>
-      </c>
-      <c r="O16" s="2">
-        <v>6.5106953232730351</v>
-      </c>
-      <c r="P16" s="2">
-        <v>10.484170350238218</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>11.209289183527488</v>
-      </c>
-      <c r="R16" s="2">
-        <v>6.5106953232730351</v>
-      </c>
-      <c r="S16" s="2">
-        <v>8.6650533741245201</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7.6329879456868399</v>
+      </c>
+      <c r="C16" s="4">
+        <v>17.522600968173787</v>
+      </c>
+      <c r="D16" s="4">
+        <v>14.849468001181473</v>
+      </c>
+      <c r="E16" s="4">
+        <v>15.218844814243976</v>
       </c>
     </row>
   </sheetData>
@@ -77559,48 +74097,48 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.4140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="55.9140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="55.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="59" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="52.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="52.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="45.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="42.4140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="57.58203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="52.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="57.5546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="61" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="53.9140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="53.88671875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="49.9140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="62.4140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="62.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B4" t="s">
@@ -77659,710 +74197,710 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>0.50000000000000011</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>12.573209169054442</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>7.526647564469914</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>11.739684813753582</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>15.278295128939828</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>10.883452722063037</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>15.094484240687679</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>9.8117478510028651</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>10.883452722063037</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>10.149068767908309</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>7.3409025787965616</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>8.7758595988538683</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>10.821275071633238</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>14.70458452722063</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>10.519340974212035</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>10.821275071633238</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>10.676719197707737</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>11.574363256784968</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>7.0110229645093947</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>10.524425887265135</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>14.416200417536535</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>10.445762004175366</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>13.557912317327766</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>9.2854279749478081</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>10.445762004175366</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>9.4227139874739034</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>6.8056784968684756</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>8.4682254697286012</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <v>10.449269311064718</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
         <v>13.04509394572025</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <v>10.104885177453028</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6">
         <v>10.449269311064718</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6">
         <v>9.9812108559498949</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>9.6745773390738208</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>5.4096398193846476</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>8.2506563057859914</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>12.490811718996115</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>8.6277433581854464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>11.01680142812139</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>7.5456263782421509</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>8.6277433581854464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>7.7213063110364377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>5.3678462669326894</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>7.039903391788302</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7">
         <v>8.1599285939304842</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7">
         <v>10.736532605271448</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <v>8.0307676152472958</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7">
         <v>8.1599285939304842</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7">
         <v>8.2761734747453541</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>8.8810018593459485</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>4.5441321229355793</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>6.8406431149513285</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>11.666411462320902</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>8.1713879470633266</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>9.4034780706551455</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>7.1351853877283169</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>8.1713879470633266</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>7.1167013015421636</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8">
         <v>4.5286011156075689</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <v>6.4232746363338071</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <v>7.9496882861205291</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8">
         <v>8.8041124357431908</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8">
         <v>7.8970797331291696</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8">
         <v>7.9496882861205291</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8">
         <v>7.7639724379306569</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>4.0000000000000009</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>7.7437478588557722</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>4.2097750371131664</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>6.8281374900079932</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>10.837844010505881</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>7.9059038483498911</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>8.5384264017357534</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>6.9421034600890712</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>7.9059038483498911</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <v>6.5033687335845611</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9">
         <v>4.5982642457462601</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9">
         <v>5.9124129268014158</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9">
         <v>7.0375699440447645</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9">
         <v>7.9471280118762131</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9">
         <v>7.1619276007765214</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9">
         <v>7.0375699440447645</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9">
         <v>7.0537855429941763</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>8.6365920262151832</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>4.2033861277990168</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>6.5000546149645002</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>11.642818132168214</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>7.5993446204259971</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>8.8412889131622059</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>6.8069907154560347</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>7.5993446204259971</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>6.6074276351720371</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>4.3102129983615507</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>6.2441288913162207</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10">
         <v>7.503222282905516</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10">
         <v>8.5231021299836147</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10">
         <v>7.2713271436373565</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10">
         <v>7.503222282905516</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10">
         <v>7.1661387220098307</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>8.1977091633466141</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>3.6972111553784859</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>5.5869023904382473</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>11.687126494023904</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>6.9839392430278888</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>8.097485059760956</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>6.055029880478088</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>6.9839392430278888</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>5.9235557768924298</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>3.926543824701195</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11">
         <v>5.6533864541832672</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11">
         <v>6.514691235059761</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11">
         <v>7.6724352589641436</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11">
         <v>6.4529382470119518</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11">
         <v>6.514691235059761</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11">
         <v>6.4779631474103585</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>6.9999999999999991</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>6.8234150717703352</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>3.2483552631578947</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>5.6643241626794261</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>9.755233253588516</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>6.2363935406698561</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>8.2540370813397121</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>5.5867224880382773</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>6.2363935406698561</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <v>5.7988935406698561</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12">
         <v>3.7188995215311005</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12">
         <v>4.8430023923444976</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12">
         <v>5.6474282296650715</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12">
         <v>7.8604964114832532</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12">
         <v>5.5743122009569381</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12">
         <v>5.6474282296650715</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12">
         <v>6.3075657894736841</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>8.0000000000000018</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>8.1921331316187587</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>3.6658908413825206</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>6.1389503083905508</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>11.802280926335389</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>7.5816362155242638</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>9.3250320027929714</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>6.9868497614337253</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
         <v>7.5816362155242638</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13">
         <v>6.638077504945886</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13">
         <v>4.0289770743628539</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13">
         <v>5.7531711858489469</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13">
         <v>7.2986151518677991</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13">
         <v>8.9001512859304093</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13">
         <v>7.3579657861049688</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13">
         <v>7.2986151518677991</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13">
         <v>7.269987198882812</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>9.0000000000000018</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>7.835548605681522</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>3.6580661975501694</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>5.2418556163669532</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>11.710190252801668</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>6.4494396664060467</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>8.1063330727130563</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>5.7206150638519677</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
         <v>6.4494396664060467</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <v>5.6656241855616365</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14">
         <v>3.8350273651290072</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14">
         <v>5.7228303362001567</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14">
         <v>6.1271826948136567</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14">
         <v>7.8586135001303106</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14">
         <v>6.1592389887933283</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14">
         <v>6.1271826948136567</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14">
         <v>6.0552514985665882</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>7.9648295377981402</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>3.6326640614472443</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>5.4236625791672282</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>11.216547635089611</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>6.3818892332569739</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>7.6693168036652741</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>5.6644657054305352</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <v>6.3818892332569739</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <v>5.2634415846920897</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15">
         <v>3.8025872523918611</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15">
         <v>5.6032879665813233</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15">
         <v>6.1335399541840721</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15">
         <v>7.458833041369088</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15">
         <v>6.1022773211157526</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15">
         <v>6.1335399541840721</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15">
         <v>5.6970758657862826</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>9.2690916657583653</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>4.9087008650330457</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>7.5932362937347033</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>12.352879975426324</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <v>8.249066101207875</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>10.296875774120352</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>7.3358468505068322</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <v>8.249066101207875</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <v>7.2977576520248508</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16">
         <v>5.0029924396309982</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16">
         <v>6.6523419308171734</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16">
         <v>7.9493465185640257</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16">
         <v>9.8907759534685553</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16">
         <v>7.8349501094915821</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16">
         <v>7.9493465185640257</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16">
         <v>7.8396072175265799</v>
       </c>
     </row>
@@ -78370,4 +74908,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>